--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.tsuchida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\generate-insert-excel-formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7071E3-EECA-432F-A75E-3D8CFF16F431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA90A5F-52DF-4A99-AAFC-99B94C745E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{423687B5-83ED-4803-855E-BB744C4477A7}"/>
   </bookViews>
@@ -1085,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT("'",_xlpm.I,"'"),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
+        <f t="array" aca="1" ref="F5" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT(strq,_xlpm.I,strq),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
         <v>insert into user([id], [last_name], [first_name], [created_at]) values(1, '山田', '次郎', sysdatetimeoffset())/* yamada */;</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="F6" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT("'",_xlpm.I,"'"),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
+        <f t="array" aca="1" ref="F6" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT(strq,_xlpm.I,strq),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
         <v>insert into user([id], [last_name], [first_name], [created_at]) values(2, '佐藤', '花子', sysdatetimeoffset());</v>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT("'",_xlpm.I,"'"),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
+        <f t="array" aca="1" ref="G5" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT(strq,_xlpm.I,strq),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
         <v>insert into post([post_id], [user_id], [content], [updated_at], [created_at]) values(1, 1, 'こんにちは！', '2000-01-01T00:00:00.0000000', sysdatetimeoffset());</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>62</v>
       </c>
       <c r="G6" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT("'",_xlpm.I,"'"),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
+        <f t="array" aca="1" ref="G6" ca="1">_xlfn.CONCAT("insert into ",VLOOKUP(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IFERROR(_xlfn.TEXTAFTER(CELL("filename",$A$1),"]"),$A$1),"~","~~"),"?","~?"),"*","~*"),設定!$B:$C,2,FALSE),"(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(_xlfn.LET(_xlpm.COLUMNS,OFFSET($B$3,0,0,1,COLUMN()-3),IF(COUNTA(common_column_names)=1,_xlpm.COLUMNS,_xlfn.HSTACK(_xlpm.COLUMNS,TRANSPOSE(_xlfn.DROP(common_column_names,1))))),_xlfn.LAMBDA(_xlpm.I,_xlfn.CONCAT(colqs,_xlpm.I,colqe)))),")"," values(",_xlfn.TEXTJOIN(", ",FALSE,_xlfn.MAP(OFFSET(INDEX($B:$B,ROW()),0,0,1,COLUMN()-3),_xlfn.LAMBDA(_xlpm.I,_xlfn.LET(_xlpm.DATATYPE,INDEX($4:$4,COLUMN(_xlpm.I)),_xlfn.IFS(AND(NOT(ISBLANK(escape_symbol)),LEFT(_xlpm.I)=escape_symbol),RIGHT(_xlpm.I,LEN(_xlpm.I)-LEN(escape_symbol)),LOWER(_xlpm.I)="null","null",AND(OR(_xlfn.MAP(_xlfn.DROP(string_columns,1),_xlfn.LAMBDA(_xlpm.J,LOWER(LEFT(_xlpm.DATATYPE,LEN(_xlpm.J)))=_xlpm.J))),_xlfn.MAP(_xlfn.DROP(functions,1),_xlfn.LAMBDA(_xlpm.J,NOT(AND(LOWER(LEFT(_xlpm.I,LEN(_xlpm.J)+1))=_xlpm.J&amp;"(",RIGHT(_xlpm.I,1)=")"))))),_xlfn.CONCAT(strq,_xlpm.I,strq),TRUE,_xlpm.I))))),IF(COUNTA(common_column_values)=1,"",", " &amp; _xlfn.TEXTJOIN(", ",FALSE,_xlfn.DROP(common_column_values,1))),")",_xlfn.LET(_xlpm.COMMENT,OFFSET($A$1,ROW()-1,0),IF(ISBLANK(_xlpm.COMMENT),"",_xlfn.CONCAT("/* ",_xlpm.COMMENT," */"))),";")</f>
         <v>insert into post([post_id], [user_id], [content], [updated_at], [created_at]) values(2, 1+1, null, sysdatetimeoffset(), sysdatetimeoffset());</v>
       </c>
     </row>
